--- a/retteskjema_oblig1.xlsx
+++ b/retteskjema_oblig1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obertaas\Dropbox\STUDIER\uib2019\V21\INF112\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EE8654-B526-4308-AB75-CDBB3691B655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF8BCC4-D59F-41B7-B51B-23678454F6F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DBAE94C-9ECF-4418-9D3B-537AEF510550}"/>
+    <workbookView xWindow="2385" yWindow="285" windowWidth="25545" windowHeight="14685" xr2:uid="{1DBAE94C-9ECF-4418-9D3B-537AEF510550}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Teamet</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Produktleveranse</t>
   </si>
   <si>
-    <t>Kravene er oppfylt (1-5 på listen skal vire)</t>
-  </si>
-  <si>
     <t>Dokumentasjon om teknisk produktoppsett (hvordan bygge og kjøre programmet)</t>
   </si>
   <si>
@@ -127,6 +124,73 @@
   </si>
   <si>
     <t>Retteskjema for oblig 1</t>
+  </si>
+  <si>
+    <t>ikke helt som planlagt, men dette kan vi skrive i retrospekt-delen</t>
+  </si>
+  <si>
+    <t>uten å ha brukt kanban før, er inntrykket vårt at vi har gjort en ok jobb med project board osv</t>
+  </si>
+  <si>
+    <t>daniel kan skrive retrospektiv, sjekk forelesning for hvordan man skriver retrospekt (å gå gjennom retteskjema kan sees som en del av retrospekt-delen)</t>
+  </si>
+  <si>
+    <t>prøver så godt vi kan, selv om dette er nytt. Tonen er god. Alle blir hørt. Noen har jobbet mer med kode enn andre, de fleste har forsøkt seg på kodebiten, selv om det kanskje har blitt gjort dobbelt arbeid innimellom. Grei fordeling.</t>
+  </si>
+  <si>
+    <t>for mvp og game menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ta en titt på disse. </t>
+  </si>
+  <si>
+    <t>inkluder arbeidsoppgaver relatert til brukerhistorier og AC</t>
+  </si>
+  <si>
+    <t>skrive ned noen enkle slike i ObligatoriskOppgave1.md</t>
+  </si>
+  <si>
+    <t>Problemet med ikke kjøring på Mac er fikset, funker på Windows, og Linux</t>
+  </si>
+  <si>
+    <t>Kravene er oppfylt (1-5 på listen skal virke)</t>
+  </si>
+  <si>
+    <t>1-4 er oppfylt. Diskutere 5. Sier oss fornøyd med enkel løsning på 5.</t>
+  </si>
+  <si>
+    <t>spørre sindre om dette! Svar: Om dere skriver hvordan dere kjører programmet i Readme.md holder det, (f.eks kan vi skrive at "kjør Main fra din favoritt-IDE eller kommandolinje")</t>
+  </si>
+  <si>
+    <t>Basert på definisjon på wiki, er vi på vei til å gjøre dette riktig, utdype litt</t>
+  </si>
+  <si>
+    <t>5-</t>
+  </si>
+  <si>
+    <t>Fornøyde</t>
+  </si>
+  <si>
+    <t>Manglende dekning foreløpig, grunnet minimalt med kode ennå (det meste er GUI, og er ikke lett å utføre vha TDD)</t>
+  </si>
+  <si>
+    <t>Er ikke helt der ennå, men kommer dit når vi får implementert spillogikk osv</t>
+  </si>
+  <si>
+    <t>Ingen kode før produktet er ferdig, er nødvendigvis overflødig. Ingen grunn til å slette filer/sketches.</t>
+  </si>
+  <si>
+    <t>Å teste GUI er utenfor kursets skop, ikke aktuelt ved første innlevering</t>
+  </si>
+  <si>
+    <t>Nokså jevn fordeling fordi noen teammedlemmer pusher oftere… Arbeidsmengde er ganske lik</t>
+  </si>
+  <si>
+    <t>Må sørge for at leveransen er tagget riktig format.</t>
+  </si>
+  <si>
+    <t>Holder å ha en beskrivelse av prosjektet i readme.md som med den andre
+F.eks. så noen uten kjennskap til det vil kunne finne repoet og forstå hva det er for noe uten å lese kode</t>
   </si>
 </sst>
 </file>
@@ -176,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +275,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -226,7 +296,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -272,6 +342,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -589,34 +666,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3F8A8D-B710-44F5-A08B-981127EB76EE}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="58.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.42578125" style="1"/>
     <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="58.42578125" style="1"/>
+    <col min="4" max="4" width="168.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="58.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -625,61 +705,88 @@
       </c>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="17">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17">
+        <v>5</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>10</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -688,34 +795,49 @@
       </c>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>5</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -724,142 +846,198 @@
       </c>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2">
         <v>8</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <v>8</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="B19" s="14">
         <v>35</v>
       </c>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B25" s="2">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B26" s="2">
         <v>10</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="15">
         <v>10</v>
       </c>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4">
         <v>5</v>
       </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="4">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="4">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="B29" s="4">
-        <v>5</v>
-      </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="B30" s="13">
         <v>125</v>
